--- a/input/Linear3_Ohm.xlsx
+++ b/input/Linear3_Ohm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0079995339270434</v>
+        <v>0.01432564932107159</v>
       </c>
       <c r="C2" t="n">
-        <v>10.1754319893457</v>
+        <v>6.991465639761399</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6590354311311346</v>
+        <v>1.110493442951626</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.4500000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005286446733637982</v>
+        <v>0.01304595685849999</v>
       </c>
       <c r="C3" t="n">
-        <v>46.21578455466776</v>
+        <v>46.29620382419033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7428236955591379</v>
+        <v>0.890130492539376</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>0.8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008121587431960221</v>
+        <v>0.006174628445307307</v>
       </c>
       <c r="C4" t="n">
-        <v>81.72409468708928</v>
+        <v>76.92516958383362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7407026627504554</v>
+        <v>1.451025732973183</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1.15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01302845783626561</v>
+        <v>0.01005401168578613</v>
       </c>
       <c r="C5" t="n">
-        <v>113.3367620990859</v>
+        <v>116.4452259784817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.795390243399027</v>
+        <v>1.237896088180598</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01087340952327993</v>
+        <v>0.007853472290746061</v>
       </c>
       <c r="C6" t="n">
-        <v>148.3589886634416</v>
+        <v>147.7555885713755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5910340016551726</v>
+        <v>0.6501546188889854</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1.85</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01161643970439471</v>
+        <v>0.007301446692124998</v>
       </c>
       <c r="C7" t="n">
-        <v>185.3920349587291</v>
+        <v>187.3139259642583</v>
       </c>
       <c r="D7" t="n">
-        <v>1.109738953642218</v>
+        <v>0.8203957453608403</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2.2</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007104695770593757</v>
+        <v>0.01341278535509757</v>
       </c>
       <c r="C8" t="n">
-        <v>220.8896280404675</v>
+        <v>220.1113820478061</v>
       </c>
       <c r="D8" t="n">
-        <v>1.056782629389825</v>
+        <v>1.190100339035406</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2.55</v>
       </c>
       <c r="B9" t="n">
-        <v>0.007385655216361144</v>
+        <v>0.01043981904389949</v>
       </c>
       <c r="C9" t="n">
-        <v>255.9238599605296</v>
+        <v>258.0971497528632</v>
       </c>
       <c r="D9" t="n">
-        <v>1.26325281120338</v>
+        <v>0.8843296927132026</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2.9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01221147113223833</v>
+        <v>0.01490267155112034</v>
       </c>
       <c r="C10" t="n">
-        <v>291.4227870224711</v>
+        <v>287.7071415389927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.827372970830706</v>
+        <v>0.6127799019760743</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>3.25</v>
       </c>
       <c r="B11" t="n">
-        <v>0.005482459005366667</v>
+        <v>0.005572718299008441</v>
       </c>
       <c r="C11" t="n">
-        <v>323.5443850477984</v>
+        <v>327.0803682114677</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7162374281447983</v>
+        <v>1.417661879008176</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>3.600000000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>0.005391059427462034</v>
+        <v>0.005978756055694598</v>
       </c>
       <c r="C12" t="n">
-        <v>360.9335935620279</v>
+        <v>359.7540018323455</v>
       </c>
       <c r="D12" t="n">
-        <v>0.790899597682413</v>
+        <v>1.086365417222171</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>3.950000000000001</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01389436517960081</v>
+        <v>0.01146830785530686</v>
       </c>
       <c r="C13" t="n">
-        <v>394.8728185369874</v>
+        <v>395.5575746271683</v>
       </c>
       <c r="D13" t="n">
-        <v>1.3653290037896</v>
+        <v>0.7528285262379067</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>4.3</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007703372946149568</v>
+        <v>0.006650313773219603</v>
       </c>
       <c r="C14" t="n">
-        <v>426.1775297563813</v>
+        <v>430.9791554073337</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9126748112189953</v>
+        <v>1.041036089718862</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>4.65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01250008707152789</v>
+        <v>0.008498604919453815</v>
       </c>
       <c r="C15" t="n">
-        <v>464.9965314475907</v>
+        <v>466.9197757920596</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5232537437272584</v>
+        <v>0.5175774094183757</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.008233980676873687</v>
+        <v>0.01214933101629917</v>
       </c>
       <c r="C16" t="n">
-        <v>498.9331769257829</v>
+        <v>499.6142082516855</v>
       </c>
       <c r="D16" t="n">
-        <v>1.027689705956187</v>
+        <v>1.0401307229293</v>
       </c>
     </row>
   </sheetData>
